--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/group.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/group.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>_Id</t>
   </si>
@@ -196,12 +196,6 @@
     <t>Mission, Solidarité</t>
   </si>
   <si>
-    <t>Paroissiens habituels au culte</t>
-  </si>
-  <si>
-    <t>ACTIVITES NON CLASSEES</t>
-  </si>
-  <si>
     <t>Couples mixtes invités le 15.06.2005</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
   </si>
   <si>
     <t>Donateurs BV 2011</t>
-  </si>
-  <si>
-    <t>Activité à créer</t>
   </si>
 </sst>
 </file>
@@ -323,6 +314,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -330,9 +324,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -638,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -668,19 +659,19 @@
       <c r="A2" s="2">
         <v>4040000002</v>
       </c>
-      <c r="B2" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C2" s="3">
         <v>4000010116</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>4000000548</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -688,19 +679,19 @@
       <c r="A3" s="2">
         <v>4040000003</v>
       </c>
-      <c r="B3" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C3" s="3">
         <v>4000010117</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>4000000548</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -708,19 +699,19 @@
       <c r="A4" s="2">
         <v>4040000004</v>
       </c>
-      <c r="B4" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C4" s="3">
         <v>4000010123</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>4000000563</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -728,19 +719,19 @@
       <c r="A5" s="2">
         <v>4040000005</v>
       </c>
-      <c r="B5" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C5" s="3">
         <v>4000010124</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>4000000563</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -748,19 +739,19 @@
       <c r="A6" s="2">
         <v>4040000006</v>
       </c>
-      <c r="B6" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C6" s="3">
         <v>4000010125</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>4000000563</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -768,19 +759,19 @@
       <c r="A7" s="2">
         <v>4040000007</v>
       </c>
-      <c r="B7" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C7" s="3">
         <v>4000010126</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>4000000563</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -788,19 +779,19 @@
       <c r="A8" s="2">
         <v>4040000008</v>
       </c>
-      <c r="B8" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C8" s="3">
         <v>4000010127</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>4000000563</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -808,19 +799,19 @@
       <c r="A9" s="2">
         <v>4040000011</v>
       </c>
-      <c r="B9" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C9" s="3">
         <v>4000010131</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>4000000548</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -828,19 +819,19 @@
       <c r="A10" s="2">
         <v>4040000009</v>
       </c>
-      <c r="B10" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C10" s="3">
         <v>4000010144</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>4000000563</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -848,19 +839,19 @@
       <c r="A11" s="2">
         <v>4040000012</v>
       </c>
-      <c r="B11" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C11" s="3">
         <v>4000010149</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>4000000559</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -868,19 +859,19 @@
       <c r="A12" s="2">
         <v>4040000010</v>
       </c>
-      <c r="B12" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C12" s="3">
         <v>4000010155</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>4000000560</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -888,19 +879,19 @@
       <c r="A13" s="2">
         <v>4040000014</v>
       </c>
-      <c r="B13" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C13" s="3">
         <v>4000010307</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>4000000562</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -908,19 +899,19 @@
       <c r="A14" s="2">
         <v>4040000001</v>
       </c>
-      <c r="B14" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C14" s="3">
         <v>4000010544</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>4000000545</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -928,19 +919,19 @@
       <c r="A15" s="2">
         <v>4040000015</v>
       </c>
-      <c r="B15" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C15" s="3">
         <v>4000010668</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>4000000548</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -948,19 +939,19 @@
       <c r="A16" s="2">
         <v>4040000016</v>
       </c>
-      <c r="B16" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C16" s="3">
         <v>4000010669</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>4000000548</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -968,19 +959,19 @@
       <c r="A17" s="2">
         <v>4040000013</v>
       </c>
-      <c r="B17" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C17" s="3">
         <v>4000010670</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>4000000561</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -988,19 +979,19 @@
       <c r="A18" s="2">
         <v>4040000017</v>
       </c>
-      <c r="B18" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C18" s="3">
         <v>4000010672</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>4000000561</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1008,19 +999,19 @@
       <c r="A19" s="2">
         <v>4040000018</v>
       </c>
-      <c r="B19" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C19" s="3">
         <v>4000010676</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>4000000675</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1028,19 +1019,19 @@
       <c r="A20" s="2">
         <v>4040000021</v>
       </c>
-      <c r="B20" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C20" s="3">
         <v>4000010681</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>4000000560</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1048,19 +1039,19 @@
       <c r="A21" s="2">
         <v>4040000022</v>
       </c>
-      <c r="B21" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C21" s="3">
         <v>4000010682</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>4000000548</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1068,19 +1059,19 @@
       <c r="A22" s="2">
         <v>4040000019</v>
       </c>
-      <c r="B22" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C22" s="3">
         <v>4000010683</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>4000000560</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1088,19 +1079,19 @@
       <c r="A23" s="2">
         <v>4040000020</v>
       </c>
-      <c r="B23" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C23" s="3">
         <v>4000010684</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>4000000562</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1108,19 +1099,19 @@
       <c r="A24" s="2">
         <v>4040000025</v>
       </c>
-      <c r="B24" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C24" s="3">
         <v>4040010143</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>4000000560</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1128,19 +1119,19 @@
       <c r="A25" s="2">
         <v>4040000027</v>
       </c>
-      <c r="B25" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C25" s="3">
         <v>4040010144</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>4000000560</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1148,19 +1139,19 @@
       <c r="A26" s="2">
         <v>4040000028</v>
       </c>
-      <c r="B26" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C26" s="3">
         <v>4040010146</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>4040000145</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1168,19 +1159,19 @@
       <c r="A27" s="2">
         <v>4040000029</v>
       </c>
-      <c r="B27" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C27" s="3">
         <v>4040010154</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>4040000145</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1188,19 +1179,19 @@
       <c r="A28" s="2">
         <v>4040000030</v>
       </c>
-      <c r="B28" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C28" s="3">
         <v>4040010155</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>4000000658</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1208,19 +1199,19 @@
       <c r="A29" s="2">
         <v>4040000031</v>
       </c>
-      <c r="B29" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C29" s="3">
         <v>4040010156</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>4040000146</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1228,19 +1219,19 @@
       <c r="A30" s="2">
         <v>4040000032</v>
       </c>
-      <c r="B30" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C30" s="3">
         <v>4040010157</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>4040000146</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1248,19 +1239,19 @@
       <c r="A31" s="2">
         <v>4040000033</v>
       </c>
-      <c r="B31" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C31" s="3">
         <v>4040010158</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>4040000146</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1268,19 +1259,19 @@
       <c r="A32" s="2">
         <v>4040000034</v>
       </c>
-      <c r="B32" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C32" s="3">
         <v>4040010159</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>4040000146</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1288,19 +1279,19 @@
       <c r="A33" s="2">
         <v>4040000035</v>
       </c>
-      <c r="B33" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C33" s="3">
         <v>4040010160</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>4040000146</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1308,19 +1299,19 @@
       <c r="A34" s="2">
         <v>4040000036</v>
       </c>
-      <c r="B34" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C34" s="3">
         <v>4040010162</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>4000000561</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1328,19 +1319,19 @@
       <c r="A35" s="2">
         <v>4040000037</v>
       </c>
-      <c r="B35" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B35" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C35" s="3">
         <v>4040010163</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>4000000548</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1348,19 +1339,19 @@
       <c r="A36" s="2">
         <v>4040000038</v>
       </c>
-      <c r="B36" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C36" s="3">
         <v>4040010164</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>4000000562</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1368,19 +1359,19 @@
       <c r="A37" s="2">
         <v>4040000039</v>
       </c>
-      <c r="B37" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C37" s="3">
         <v>4040010165</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>4000000658</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1388,19 +1379,19 @@
       <c r="A38" s="2">
         <v>4040000040</v>
       </c>
-      <c r="B38" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C38" s="3">
         <v>4040010166</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>4000000660</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1408,19 +1399,19 @@
       <c r="A39" s="2">
         <v>4040000041</v>
       </c>
-      <c r="B39" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="B39" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C39" s="3">
         <v>4040010167</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>4000000560</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1428,19 +1419,19 @@
       <c r="A40" s="2">
         <v>4040000042</v>
       </c>
-      <c r="B40" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C40" s="3">
         <v>4040010168</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>4000000563</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1448,19 +1439,19 @@
       <c r="A41" s="2">
         <v>4040000043</v>
       </c>
-      <c r="B41" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="B41" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C41" s="3">
         <v>4040010169</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>4040000145</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1468,79 +1459,67 @@
       <c r="A42" s="2">
         <v>4040000044</v>
       </c>
-      <c r="B42" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C42" s="3">
         <v>4040010170</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>4040000045</v>
-      </c>
-      <c r="B43" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C43" s="4">
-        <v>4040010171</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="6">
-        <v>100000000558</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="A43" s="2"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>4040000046</v>
       </c>
-      <c r="B44" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C44" s="3">
         <v>4040010173</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="6">
+      <c r="D44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="5">
         <v>4040000147</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>63</v>
+      <c r="F44" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>4040000047</v>
       </c>
-      <c r="B45" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C45" s="3">
         <v>4040010176</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="6">
+      <c r="D45" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="5">
         <v>4000000560</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1548,19 +1527,19 @@
       <c r="A46" s="2">
         <v>4040000048</v>
       </c>
-      <c r="B46" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B46" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C46" s="3">
         <v>4040010177</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="D46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="5">
         <v>4000000560</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1568,16 +1547,16 @@
       <c r="A47" s="2">
         <v>4040000049</v>
       </c>
-      <c r="B47" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="B47" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C47" s="3">
         <v>4040010178</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="6">
+      <c r="D47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="5">
         <v>4000000662.0999999</v>
       </c>
     </row>
@@ -1585,19 +1564,19 @@
       <c r="A48" s="2">
         <v>4040000052</v>
       </c>
-      <c r="B48" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C48" s="3">
         <v>4040010180</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="6">
+      <c r="D48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1605,19 +1584,19 @@
       <c r="A49" s="2">
         <v>4040000053</v>
       </c>
-      <c r="B49" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="B49" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C49" s="3">
         <v>4040010181</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="D49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1625,19 +1604,19 @@
       <c r="A50" s="2">
         <v>4040000054</v>
       </c>
-      <c r="B50" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C50" s="3">
         <v>4040010182</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E50" s="6">
+      <c r="D50" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1645,19 +1624,19 @@
       <c r="A51" s="2">
         <v>4040000055</v>
       </c>
-      <c r="B51" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B51" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C51" s="3">
         <v>4040010184</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="6">
+      <c r="D51" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1665,19 +1644,19 @@
       <c r="A52" s="2">
         <v>4040000056</v>
       </c>
-      <c r="B52" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="B52" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C52" s="3">
         <v>4040010185</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E52" s="6">
+      <c r="D52" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1685,19 +1664,19 @@
       <c r="A53" s="2">
         <v>4040000057</v>
       </c>
-      <c r="B53" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="B53" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C53" s="3">
         <v>4040010186</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E53" s="6">
+      <c r="D53" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1705,19 +1684,19 @@
       <c r="A54" s="2">
         <v>4040000058</v>
       </c>
-      <c r="B54" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="B54" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C54" s="3">
         <v>4040010188</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E54" s="6">
+      <c r="D54" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1725,19 +1704,19 @@
       <c r="A55" s="2">
         <v>4040000059</v>
       </c>
-      <c r="B55" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C55" s="4">
+      <c r="B55" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C55" s="3">
         <v>4040010189</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" s="6">
+      <c r="D55" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E55" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1745,19 +1724,19 @@
       <c r="A56" s="2">
         <v>4040000060</v>
       </c>
-      <c r="B56" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C56" s="4">
+      <c r="B56" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C56" s="3">
         <v>4040010190</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="6">
+      <c r="D56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1765,19 +1744,19 @@
       <c r="A57" s="2">
         <v>4040000061</v>
       </c>
-      <c r="B57" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="B57" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C57" s="3">
         <v>4040010191</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E57" s="6">
+      <c r="D57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1785,19 +1764,19 @@
       <c r="A58" s="2">
         <v>4040000062</v>
       </c>
-      <c r="B58" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B58" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C58" s="3">
         <v>4040010192</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="6">
+      <c r="D58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E58" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1805,19 +1784,19 @@
       <c r="A59" s="2">
         <v>4040000063</v>
       </c>
-      <c r="B59" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C59" s="4">
+      <c r="B59" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C59" s="3">
         <v>4040010193</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E59" s="6">
+      <c r="D59" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1825,19 +1804,19 @@
       <c r="A60" s="2">
         <v>4040000064</v>
       </c>
-      <c r="B60" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="B60" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C60" s="3">
         <v>4040010194</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="6">
+      <c r="D60" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1845,19 +1824,19 @@
       <c r="A61" s="2">
         <v>4040000066</v>
       </c>
-      <c r="B61" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="B61" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C61" s="3">
         <v>4040010195</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E61" s="6">
+      <c r="D61" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1865,19 +1844,19 @@
       <c r="A62" s="2">
         <v>4040000065</v>
       </c>
-      <c r="B62" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="B62" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C62" s="3">
         <v>4040010196</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="6">
+      <c r="D62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1885,19 +1864,19 @@
       <c r="A63" s="2">
         <v>4040000067</v>
       </c>
-      <c r="B63" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C63" s="4">
+      <c r="B63" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C63" s="3">
         <v>4040010248</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E63" s="6">
+      <c r="D63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1905,19 +1884,19 @@
       <c r="A64" s="2">
         <v>4040000068</v>
       </c>
-      <c r="B64" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C64" s="4">
+      <c r="B64" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C64" s="3">
         <v>4040010249</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="6">
+      <c r="D64" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E64" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1925,58 +1904,36 @@
       <c r="A65" s="2">
         <v>4040000069</v>
       </c>
-      <c r="B65" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C65" s="4">
+      <c r="B65" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C65" s="3">
         <v>4040010250</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E65" s="6">
+      <c r="D65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="5">
         <v>4000000662</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C66" s="4">
-        <v>4041010009</v>
-      </c>
-      <c r="E66" s="6">
-        <v>100000000558</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="A66" s="2"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="3"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>4040000026</v>
-      </c>
-      <c r="B67" s="3">
-        <v>4040000000</v>
-      </c>
-      <c r="C67" s="4">
-        <v>100000010565</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" s="6">
-        <v>100000000558</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>61</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/group.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/group.xlsx
@@ -627,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1476,45 +1476,57 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
+      <c r="A43" s="2">
+        <v>4040000046</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2050000000</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4040010173</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" s="5">
+        <v>4040000147</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>4040000046</v>
+        <v>4040000047</v>
       </c>
       <c r="B44" s="7">
         <v>2050000000</v>
       </c>
       <c r="C44" s="3">
-        <v>4040010173</v>
+        <v>4040010176</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E44" s="5">
-        <v>4040000147</v>
+        <v>4000000560</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>4040000047</v>
+        <v>4040000048</v>
       </c>
       <c r="B45" s="7">
         <v>2050000000</v>
       </c>
       <c r="C45" s="3">
-        <v>4040010176</v>
+        <v>4040010177</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E45" s="5">
         <v>4000000560</v>
@@ -1525,53 +1537,53 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>4040000048</v>
+        <v>4040000049</v>
       </c>
       <c r="B46" s="7">
         <v>2050000000</v>
       </c>
       <c r="C46" s="3">
-        <v>4040010177</v>
+        <v>4040010178</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E46" s="5">
-        <v>4000000560</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>20</v>
+        <v>4000000662.0999999</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>4040000049</v>
+        <v>4040000052</v>
       </c>
       <c r="B47" s="7">
         <v>2050000000</v>
       </c>
       <c r="C47" s="3">
-        <v>4040010178</v>
+        <v>4040010180</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E47" s="5">
-        <v>4000000662.0999999</v>
+        <v>4000000662</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>4040000052</v>
+        <v>4040000053</v>
       </c>
       <c r="B48" s="7">
         <v>2050000000</v>
       </c>
       <c r="C48" s="3">
-        <v>4040010180</v>
+        <v>4040010181</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E48" s="5">
         <v>4000000662</v>
@@ -1582,16 +1594,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>4040000053</v>
+        <v>4040000054</v>
       </c>
       <c r="B49" s="7">
         <v>2050000000</v>
       </c>
       <c r="C49" s="3">
-        <v>4040010181</v>
+        <v>4040010182</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E49" s="5">
         <v>4000000662</v>
@@ -1602,16 +1614,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>4040000054</v>
+        <v>4040000055</v>
       </c>
       <c r="B50" s="7">
         <v>2050000000</v>
       </c>
       <c r="C50" s="3">
-        <v>4040010182</v>
+        <v>4040010184</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E50" s="5">
         <v>4000000662</v>
@@ -1622,16 +1634,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>4040000055</v>
+        <v>4040000056</v>
       </c>
       <c r="B51" s="7">
         <v>2050000000</v>
       </c>
       <c r="C51" s="3">
-        <v>4040010184</v>
+        <v>4040010185</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E51" s="5">
         <v>4000000662</v>
@@ -1642,16 +1654,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>4040000056</v>
+        <v>4040000057</v>
       </c>
       <c r="B52" s="7">
         <v>2050000000</v>
       </c>
       <c r="C52" s="3">
-        <v>4040010185</v>
+        <v>4040010186</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E52" s="5">
         <v>4000000662</v>
@@ -1662,16 +1674,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>4040000057</v>
+        <v>4040000058</v>
       </c>
       <c r="B53" s="7">
         <v>2050000000</v>
       </c>
       <c r="C53" s="3">
-        <v>4040010186</v>
+        <v>4040010188</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E53" s="5">
         <v>4000000662</v>
@@ -1682,16 +1694,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>4040000058</v>
+        <v>4040000059</v>
       </c>
       <c r="B54" s="7">
         <v>2050000000</v>
       </c>
       <c r="C54" s="3">
-        <v>4040010188</v>
+        <v>4040010189</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E54" s="5">
         <v>4000000662</v>
@@ -1702,16 +1714,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>4040000059</v>
+        <v>4040000060</v>
       </c>
       <c r="B55" s="7">
         <v>2050000000</v>
       </c>
       <c r="C55" s="3">
-        <v>4040010189</v>
+        <v>4040010190</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E55" s="5">
         <v>4000000662</v>
@@ -1722,16 +1734,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>4040000060</v>
+        <v>4040000061</v>
       </c>
       <c r="B56" s="7">
         <v>2050000000</v>
       </c>
       <c r="C56" s="3">
-        <v>4040010190</v>
+        <v>4040010191</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E56" s="5">
         <v>4000000662</v>
@@ -1742,16 +1754,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>4040000061</v>
+        <v>4040000062</v>
       </c>
       <c r="B57" s="7">
         <v>2050000000</v>
       </c>
       <c r="C57" s="3">
-        <v>4040010191</v>
+        <v>4040010192</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E57" s="5">
         <v>4000000662</v>
@@ -1762,16 +1774,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>4040000062</v>
+        <v>4040000063</v>
       </c>
       <c r="B58" s="7">
         <v>2050000000</v>
       </c>
       <c r="C58" s="3">
-        <v>4040010192</v>
+        <v>4040010193</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E58" s="5">
         <v>4000000662</v>
@@ -1782,16 +1794,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>4040000063</v>
+        <v>4040000064</v>
       </c>
       <c r="B59" s="7">
         <v>2050000000</v>
       </c>
       <c r="C59" s="3">
-        <v>4040010193</v>
+        <v>4040010194</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E59" s="5">
         <v>4000000662</v>
@@ -1802,16 +1814,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>4040000064</v>
+        <v>4040000066</v>
       </c>
       <c r="B60" s="7">
         <v>2050000000</v>
       </c>
       <c r="C60" s="3">
-        <v>4040010194</v>
+        <v>4040010195</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E60" s="5">
         <v>4000000662</v>
@@ -1822,16 +1834,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>4040000066</v>
+        <v>4040000065</v>
       </c>
       <c r="B61" s="7">
         <v>2050000000</v>
       </c>
       <c r="C61" s="3">
-        <v>4040010195</v>
+        <v>4040010196</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E61" s="5">
         <v>4000000662</v>
@@ -1842,16 +1854,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>4040000065</v>
+        <v>4040000067</v>
       </c>
       <c r="B62" s="7">
         <v>2050000000</v>
       </c>
       <c r="C62" s="3">
-        <v>4040010196</v>
+        <v>4040010248</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E62" s="5">
         <v>4000000662</v>
@@ -1862,16 +1874,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>4040000067</v>
+        <v>4040000068</v>
       </c>
       <c r="B63" s="7">
         <v>2050000000</v>
       </c>
       <c r="C63" s="3">
-        <v>4040010248</v>
+        <v>4040010249</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E63" s="5">
         <v>4000000662</v>
@@ -1882,16 +1894,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>4040000068</v>
+        <v>4040000069</v>
       </c>
       <c r="B64" s="7">
         <v>2050000000</v>
       </c>
       <c r="C64" s="3">
-        <v>4040010249</v>
+        <v>4040010250</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E64" s="5">
         <v>4000000662</v>
@@ -1901,39 +1913,19 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>4040000069</v>
-      </c>
-      <c r="B65" s="7">
-        <v>2050000000</v>
-      </c>
-      <c r="C65" s="3">
-        <v>4040010250</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E65" s="5">
-        <v>4000000662</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="3"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="7"/>
       <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="5"/>
       <c r="F66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/group.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2050/group.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -315,13 +315,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -642,7 +639,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -674,16 +671,16 @@
       <c r="B2" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C2" s="4">
-        <v>305020101</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2">
+        <v>403110101</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>305020100</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -694,16 +691,16 @@
       <c r="B3" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C3" s="4">
-        <v>305020201</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3">
+        <v>403110201</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>305020200</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -714,16 +711,16 @@
       <c r="B4" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C4" s="4">
-        <v>305020202</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4">
+        <v>403110202</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>305020200</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -734,16 +731,16 @@
       <c r="B5" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C5" s="4">
-        <v>305020203</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5">
+        <v>403110203</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>305020200</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -754,16 +751,16 @@
       <c r="B6" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C6" s="4">
-        <v>305020204</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6">
+        <v>403110204</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>305020200</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -774,16 +771,16 @@
       <c r="B7" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C7" s="4">
-        <v>305020205</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7">
+        <v>403110205</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>305020200</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -794,16 +791,16 @@
       <c r="B8" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C8" s="4">
-        <v>305020206</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8">
+        <v>403110206</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>305020200</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -814,16 +811,16 @@
       <c r="B9" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C9" s="4">
-        <v>305020207</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9">
+        <v>403110207</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>305020200</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -834,16 +831,16 @@
       <c r="B10" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C10" s="4">
-        <v>305020301</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10">
+        <v>403110301</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>305020300</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -854,16 +851,16 @@
       <c r="B11" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C11" s="4">
-        <v>305020302</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11">
+        <v>403110302</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>305020300</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -874,16 +871,16 @@
       <c r="B12" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C12" s="4">
-        <v>305020303</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12">
+        <v>403110303</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>305020300</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -894,16 +891,16 @@
       <c r="B13" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C13" s="4">
-        <v>305020304</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13">
+        <v>403110304</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>305020300</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -914,16 +911,16 @@
       <c r="B14" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C14" s="4">
-        <v>305020305</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14">
+        <v>403110305</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>305020300</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -934,16 +931,16 @@
       <c r="B15" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C15" s="4">
-        <v>305020306</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15">
+        <v>403110306</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>305020300</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -954,16 +951,16 @@
       <c r="B16" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C16" s="4">
-        <v>305020307</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16">
+        <v>403110307</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>305020300</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -974,16 +971,16 @@
       <c r="B17" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C17" s="4">
-        <v>305020401</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17">
+        <v>403110401</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>305020400</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -994,16 +991,16 @@
       <c r="B18" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C18" s="4">
-        <v>305020402</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18">
+        <v>403110402</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>305020400</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1014,16 +1011,16 @@
       <c r="B19" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C19" s="4">
-        <v>305020403</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19">
+        <v>403110403</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>305020400</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1034,16 +1031,16 @@
       <c r="B20" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C20" s="4">
-        <v>305020404</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20">
+        <v>403110404</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>305020400</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1054,16 +1051,16 @@
       <c r="B21" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C21" s="4">
-        <v>305020405</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21">
+        <v>403110405</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>305020400</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1074,16 +1071,16 @@
       <c r="B22" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C22" s="4">
-        <v>305020406</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22">
+        <v>403110406</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>305020400</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1094,16 +1091,16 @@
       <c r="B23" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C23" s="4">
-        <v>305020407</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23">
+        <v>403110407</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>305020400</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1114,16 +1111,16 @@
       <c r="B24" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C24" s="4">
-        <v>305020408</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24">
+        <v>403110408</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>305020400</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1134,16 +1131,16 @@
       <c r="B25" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C25" s="4">
-        <v>305020501</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25">
+        <v>403110501</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>305020500</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1154,16 +1151,16 @@
       <c r="B26" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C26" s="4">
-        <v>305020601</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26">
+        <v>403110601</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>305020600</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1174,16 +1171,16 @@
       <c r="B27" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C27" s="4">
-        <v>305020602</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27">
+        <v>403110602</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>305020600</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1194,16 +1191,16 @@
       <c r="B28" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C28" s="4">
-        <v>305020603</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28">
+        <v>403110603</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>305020600</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1214,16 +1211,16 @@
       <c r="B29" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C29" s="4">
-        <v>305020701</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29">
+        <v>403110701</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>305020700</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1234,16 +1231,16 @@
       <c r="B30" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C30" s="4">
-        <v>305020702</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30">
+        <v>403110702</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>305020700</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1254,16 +1251,16 @@
       <c r="B31" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C31" s="4">
-        <v>305020703</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31">
+        <v>403110703</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>305020700</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1274,16 +1271,16 @@
       <c r="B32" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C32" s="4">
-        <v>305020801</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32">
+        <v>403110801</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>305020800</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1294,16 +1291,16 @@
       <c r="B33" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C33" s="4">
-        <v>305020901</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33">
+        <v>403110901</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>305020900</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1314,16 +1311,16 @@
       <c r="B34" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C34" s="4">
-        <v>305020902</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34">
+        <v>403110902</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>305020900</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1334,16 +1331,16 @@
       <c r="B35" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C35" s="4">
-        <v>305020903</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35">
+        <v>403110903</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>305020900</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1354,16 +1351,16 @@
       <c r="B36" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C36" s="4">
-        <v>305021001</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36">
+        <v>403111001</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>305021000</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1374,16 +1371,16 @@
       <c r="B37" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C37" s="4">
-        <v>305021002</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37">
+        <v>403111002</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>305021000</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1394,16 +1391,16 @@
       <c r="B38" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C38" s="4">
-        <v>305021003</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38">
+        <v>403111003</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>305021000</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1414,16 +1411,16 @@
       <c r="B39" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C39" s="4">
-        <v>305021101</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39">
+        <v>403111101</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>305021100</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1434,16 +1431,16 @@
       <c r="B40" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C40" s="4">
-        <v>305021102</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40">
+        <v>403111102</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>305021100</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1454,16 +1451,16 @@
       <c r="B41" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C41" s="4">
-        <v>305021201</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41">
+        <v>403111201</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>305021200</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1474,16 +1471,16 @@
       <c r="B42" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C42" s="4">
-        <v>305021202</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42">
+        <v>403111202</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>305021200</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1494,16 +1491,16 @@
       <c r="B43" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C43" s="4">
-        <v>305021203</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43">
+        <v>403111203</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>305021200</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1514,16 +1511,16 @@
       <c r="B44" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C44" s="4">
-        <v>305021204</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44">
+        <v>403111204</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>305021200</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1534,16 +1531,16 @@
       <c r="B45" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C45" s="4">
-        <v>305021205</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45">
+        <v>403111205</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>305021200</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1554,16 +1551,16 @@
       <c r="B46" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C46" s="4">
-        <v>305021301</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46">
+        <v>403111301</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>305021300</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1574,16 +1571,16 @@
       <c r="B47" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C47" s="4">
-        <v>305021401</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47">
+        <v>403111401</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>305021400</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1594,16 +1591,16 @@
       <c r="B48" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C48" s="4">
-        <v>305021402</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48">
+        <v>403111402</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>305021400</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1614,16 +1611,16 @@
       <c r="B49" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C49" s="4">
-        <v>305021403</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="C49">
+        <v>403111403</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>305021400</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1634,16 +1631,16 @@
       <c r="B50" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C50" s="4">
-        <v>305021404</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50">
+        <v>403111404</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>305021400</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1654,16 +1651,16 @@
       <c r="B51" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C51" s="4">
-        <v>305021405</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51">
+        <v>403111405</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>305021400</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1674,16 +1671,16 @@
       <c r="B52" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C52" s="4">
-        <v>305021406</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C52">
+        <v>403111406</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>305021400</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1694,16 +1691,16 @@
       <c r="B53" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C53" s="4">
-        <v>305021407</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="C53">
+        <v>403111407</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>305021400</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1714,16 +1711,16 @@
       <c r="B54" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C54" s="4">
-        <v>305021408</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="C54">
+        <v>403111408</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>305021400</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1734,16 +1731,16 @@
       <c r="B55" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C55" s="4">
-        <v>305021409</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55">
+        <v>403111409</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>305021400</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1754,16 +1751,16 @@
       <c r="B56" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C56" s="4">
-        <v>305021410</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56">
+        <v>403111410</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>305021400</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1774,16 +1771,16 @@
       <c r="B57" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C57" s="4">
-        <v>305021411</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C57">
+        <v>403111411</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>305021400</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1794,16 +1791,16 @@
       <c r="B58" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C58" s="4">
-        <v>305021412</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C58">
+        <v>403111412</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>305021400</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1814,16 +1811,16 @@
       <c r="B59" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C59" s="4">
-        <v>305021413</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59">
+        <v>403111413</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>305021400</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1834,16 +1831,16 @@
       <c r="B60" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C60" s="4">
-        <v>305021414</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C60">
+        <v>403111414</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>305021400</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1854,16 +1851,16 @@
       <c r="B61" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C61" s="4">
-        <v>305021415</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="C61">
+        <v>403111415</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>305021400</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1874,16 +1871,16 @@
       <c r="B62" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C62" s="4">
-        <v>305021416</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="C62">
+        <v>403111416</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>305021400</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1894,16 +1891,16 @@
       <c r="B63" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C63" s="4">
-        <v>305021417</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63">
+        <v>403111417</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>305021400</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1914,16 +1911,16 @@
       <c r="B64" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C64" s="4">
-        <v>305021418</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64">
+        <v>403111418</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>305021400</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1934,16 +1931,16 @@
       <c r="B65" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C65" s="4">
-        <v>305021419</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65">
+        <v>403111419</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>305021400</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1954,16 +1951,16 @@
       <c r="B66" s="3">
         <v>2050000000</v>
       </c>
-      <c r="C66" s="4">
-        <v>305021501</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C66">
+        <v>403111501</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>305021500</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>85</v>
       </c>
     </row>
